--- a/Isotopes/samples.xlsx
+++ b/Isotopes/samples.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="38">
   <si>
     <t>Sample.ID</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Depth_m</t>
+  </si>
+  <si>
+    <t>Clogged the filters</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="149" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,6 +2252,444 @@
         <v>15</v>
       </c>
     </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="str">
+        <f t="shared" ref="A36:A47" si="3">CONCATENATE(D36,"_",E36,F36)</f>
+        <v>MEDH_5A</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_5B</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_10A</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>26</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_10B</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_15A</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_15B</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>26</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_20A</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_20B</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>26</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_22A</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>26</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_22B</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>22</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_24A</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDH_24B</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>24</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>26</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" s="2">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
